--- a/rp/Excel/BodyType_体型.xlsx
+++ b/rp/Excel/BodyType_体型.xlsx
@@ -34,13 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,7 +71,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -86,11 +97,14 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,12 +440,14 @@
         <v>String</v>
       </c>
       <c r="C1" s="1" t="str">
+        <v>Float</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>Int</v>
+      </c>
+      <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="1" t="str">
-        <v>Int</v>
-      </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -458,10 +474,12 @@
       <c r="C2" s="1" t="str">
         <v>Scale</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>SexType</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <v>Icon</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -482,7 +500,11 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2" t="str">
+        <v>0-Common
+1-Male
+2-FeMale</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -530,12 +552,14 @@
         <v>0.7倍</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>119160</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -560,12 +584,14 @@
         <v>0.8倍</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>119155</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -590,12 +616,14 @@
         <v>0.9倍</v>
       </c>
       <c r="C7" s="1">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>119155</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -620,12 +648,14 @@
         <v>正常</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>119156</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -650,12 +680,14 @@
         <v>1.1倍</v>
       </c>
       <c r="C9" s="1">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>119157</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -680,12 +712,14 @@
         <v>1.2倍</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>119157</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -710,12 +744,14 @@
         <v>1.3倍</v>
       </c>
       <c r="C11" s="1">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>119152</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
